--- a/biology/Zoologie/Chaetorellia_acrolophi/Chaetorellia_acrolophi.xlsx
+++ b/biology/Zoologie/Chaetorellia_acrolophi/Chaetorellia_acrolophi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetorellia acrolophi est une espèce de diptères de la famille des Tephritidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago est brun verdâtre clair avec des ailes à bandes brunes et des yeux verts irisés, un abdomen de couleur jaune orangé. Il mesure de 4 à 5 millimètres de long[1].
-Les mouches apparaissent début juin, avec la formation de bourgeons de centaurée. L'accouplement a lieu immédiatement et la ponte commence dans les deux jours. La femelle pond environ 70 œufs. Les œufs sont placés individuellement ou en petits groupes de deux à quatre sous les bractées de bourgeons non ouverts de 4 à 5 millimètres de diamètre[1]. Lorsque la larve émerge de l'œuf une dizaine de jours plus tard, elle s'enfouit dans le bourgeon et se nourrit des fleurs en développement. Au fur et à mesure que la larve grandit, elle commence à se nourrir des graines en développement, consommant souvent tout le contenu du bourgeon pendant son stade larvaire de deux semaines. Il se nymphose à l'intérieur du bourgeon vide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est brun verdâtre clair avec des ailes à bandes brunes et des yeux verts irisés, un abdomen de couleur jaune orangé. Il mesure de 4 à 5 millimètres de long.
+Les mouches apparaissent début juin, avec la formation de bourgeons de centaurée. L'accouplement a lieu immédiatement et la ponte commence dans les deux jours. La femelle pond environ 70 œufs. Les œufs sont placés individuellement ou en petits groupes de deux à quatre sous les bractées de bourgeons non ouverts de 4 à 5 millimètres de diamètre. Lorsque la larve émerge de l'œuf une dizaine de jours plus tard, elle s'enfouit dans le bourgeon et se nourrit des fleurs en développement. Au fur et à mesure que la larve grandit, elle commence à se nourrir des graines en développement, consommant souvent tout le contenu du bourgeon pendant son stade larvaire de deux semaines. Il se nymphose à l'intérieur du bourgeon vide.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mouche est originaire d'Europe, de l'Espagne à l'est de la Biélorussie et en Turquie[1].
-Elle est introduite en Amérique pour la première fois en tant que lutte biologique contre la centaurée en 1992 à partir de mouches récoltées en Autriche et en Suisse et déposées dans le Montana[3]. Elle est actuellement établie dans une grande partie de l'ouest des États-Unis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mouche est originaire d'Europe, de l'Espagne à l'est de la Biélorussie et en Turquie.
+Elle est introduite en Amérique pour la première fois en tant que lutte biologique contre la centaurée en 1992 à partir de mouches récoltées en Autriche et en Suisse et déposées dans le Montana. Elle est actuellement établie dans une grande partie de l'ouest des États-Unis.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetorellia acrolophi est un parasite des plantes Centaurea cariensis, Centaurea diffusa, Centaurea hanrii, Centaurea leucophaea, Centaurea pectinata, Centaurea stoebe, Centaurea vallesiaca, Centaurea virgata[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetorellia acrolophi est un parasite des plantes Centaurea cariensis, Centaurea diffusa, Centaurea hanrii, Centaurea leucophaea, Centaurea pectinata, Centaurea stoebe, Centaurea vallesiaca, Centaurea virgata.
 </t>
         </is>
       </c>
@@ -606,11 +624,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chaetorellia acrolophi a été décrite en 1989 par Ian M. White (d) et Kirsten Marquardt (d)[5],[6].
-Étymologie
-Son épithète spécifique, acrolophi, fait référence au sous-genre botanique Acrolophus[note 1] du genre Centaurea (famille des Asteraceae), dont cette espèce est un parasite[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chaetorellia acrolophi a été décrite en 1989 par Ian M. White (d) et Kirsten Marquardt (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chaetorellia_acrolophi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chaetorellia_acrolophi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, acrolophi, fait référence au sous-genre botanique Acrolophus[note 1] du genre Centaurea (famille des Asteraceae), dont cette espèce est un parasite.
 </t>
         </is>
       </c>
